--- a/data/trans_orig/RUIDO_1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1-Provincia-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3974</v>
+        <v>4530</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.005374990360264702</v>
+        <v>0.005374990360264703</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02414719021588326</v>
+        <v>0.02752778480232063</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2346</v>
+        <v>2436</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002660101443034059</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01322766005366119</v>
+        <v>0.01373495029081303</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4845</v>
+        <v>5044</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.003966752535369414</v>
+        <v>0.003966752535369413</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01417075766632346</v>
+        <v>0.01475186288972964</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>2521</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6300</v>
+        <v>6678</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01531739545637062</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004316113827345076</v>
+        <v>0.004218055060293821</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03828280882612959</v>
+        <v>0.04058299158893001</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3984</v>
+        <v>3787</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004221807413172095</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02246342447519436</v>
+        <v>0.02135475231096123</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -854,19 +854,19 @@
         <v>3269</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8068</v>
+        <v>8112</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.009562011995662855</v>
+        <v>0.009562011995662853</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002586839771716748</v>
+        <v>0.002526117281738556</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02359574176500687</v>
+        <v>0.02372599759872101</v>
       </c>
     </row>
     <row r="6">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6042</v>
+        <v>6167</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006750713525915932</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03406885069157997</v>
+        <v>0.03477027475474343</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6610</v>
+        <v>6080</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003501657129281147</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01933333692671738</v>
+        <v>0.01778312910039548</v>
       </c>
     </row>
     <row r="7">
@@ -996,16 +996,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5236</v>
+        <v>5852</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01025622814602852</v>
+        <v>0.01025622814602853</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03181618271452919</v>
+        <v>0.03556071442252887</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1014,19 +1014,19 @@
         <v>2770</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>917</v>
+        <v>949</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5998</v>
+        <v>6596</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.015619380142975</v>
+        <v>0.01561938014297499</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005172577118299111</v>
+        <v>0.005351624752244836</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03381977626890291</v>
+        <v>0.03719429069193741</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -1035,19 +1035,19 @@
         <v>4458</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1796</v>
+        <v>1842</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9030</v>
+        <v>9043</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01303814436176336</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005254240686301571</v>
+        <v>0.005388486753132305</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0264103337099227</v>
+        <v>0.02644819636275903</v>
       </c>
     </row>
     <row r="9">
@@ -1064,19 +1064,19 @@
         <v>2379</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>686</v>
+        <v>658</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6798</v>
+        <v>6333</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01445410715711109</v>
+        <v>0.0144541071571111</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004166084814631448</v>
+        <v>0.003998006220753214</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04130946175306525</v>
+        <v>0.03848650285559566</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2573</v>
+        <v>2561</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002796524281696493</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01450846035222498</v>
+        <v>0.01444228378546547</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1106,19 +1106,19 @@
         <v>2875</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7429</v>
+        <v>6654</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.00840721181350476</v>
+        <v>0.008407211813504758</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002014334374746611</v>
+        <v>0.002029983869912039</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02172748941640781</v>
+        <v>0.01945997316490906</v>
       </c>
     </row>
     <row r="10">
@@ -1135,19 +1135,19 @@
         <v>5768</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2444</v>
+        <v>2250</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11807</v>
+        <v>12004</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.035051155116847</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01485426551094206</v>
+        <v>0.01367294725904239</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07174765083658155</v>
+        <v>0.07294674945032079</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1159,16 +1159,16 @@
         <v>1488</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10261</v>
+        <v>10117</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02374883763193799</v>
+        <v>0.02374883763193798</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008392008294428471</v>
+        <v>0.008392285230486617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05785925143139053</v>
+        <v>0.05704475911797022</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1177,19 +1177,19 @@
         <v>9980</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5359</v>
+        <v>5400</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17636</v>
+        <v>18499</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02918853919536027</v>
+        <v>0.02918853919536026</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01567443047904138</v>
+        <v>0.01579305666012495</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05157941584899731</v>
+        <v>0.05410482738744683</v>
       </c>
     </row>
     <row r="11">
@@ -1206,19 +1206,19 @@
         <v>6128</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2676</v>
+        <v>2558</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11687</v>
+        <v>11584</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03724040491752621</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01626053716243223</v>
+        <v>0.01554492830567105</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07101819814644621</v>
+        <v>0.0703949881601563</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1227,19 +1227,19 @@
         <v>5067</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2470</v>
+        <v>2541</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9861</v>
+        <v>10355</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02857075615725323</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01392469804902003</v>
+        <v>0.01432838902485845</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05560335986583888</v>
+        <v>0.05838570840415903</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -1248,19 +1248,19 @@
         <v>11195</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6597</v>
+        <v>6863</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18473</v>
+        <v>18600</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03274337845162321</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01929395574280746</v>
+        <v>0.02007163515263676</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05402843749233307</v>
+        <v>0.05439931963353532</v>
       </c>
     </row>
     <row r="12">
@@ -1277,19 +1277,19 @@
         <v>6388</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1779</v>
+        <v>2039</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17570</v>
+        <v>17197</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03881750348846168</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01080934790287008</v>
+        <v>0.01239357002909988</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1067729974635038</v>
+        <v>0.1045017352344953</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -1298,19 +1298,19 @@
         <v>6739</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3597</v>
+        <v>3770</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11197</v>
+        <v>11400</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.03799889638483151</v>
+        <v>0.03799889638483152</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0202813777245686</v>
+        <v>0.0212562413890244</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0631345088401455</v>
+        <v>0.06427811672445671</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -1319,19 +1319,19 @@
         <v>13127</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7713</v>
+        <v>7446</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>25372</v>
+        <v>23332</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03839288446270946</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0225589577760288</v>
+        <v>0.02177910152171665</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07420647944660839</v>
+        <v>0.06823918828142622</v>
       </c>
     </row>
     <row r="13">
@@ -1348,19 +1348,19 @@
         <v>2946</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>856</v>
+        <v>839</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7940</v>
+        <v>7324</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01789980346917647</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005200170623549508</v>
+        <v>0.005098978602970376</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04824805745530369</v>
+        <v>0.04450871165416571</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1369,19 +1369,19 @@
         <v>4470</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2017</v>
+        <v>2079</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7722</v>
+        <v>8224</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02520554144032091</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01137511632553223</v>
+        <v>0.01172027705966861</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04354314628656349</v>
+        <v>0.04637221925759753</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1390,19 +1390,19 @@
         <v>7416</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3854</v>
+        <v>4136</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12860</v>
+        <v>13167</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02168935687758406</v>
+        <v>0.02168935687758405</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01127061427861721</v>
+        <v>0.01209780448472182</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03761268257586406</v>
+        <v>0.03850939027584694</v>
       </c>
     </row>
     <row r="14">
@@ -1419,19 +1419,19 @@
         <v>135857</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>124196</v>
+        <v>124184</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>145255</v>
+        <v>144580</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8255884118882137</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7547217485640311</v>
+        <v>0.7546499690711822</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8826960408350191</v>
+        <v>0.8785953424927374</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>259</v>
@@ -1440,19 +1440,19 @@
         <v>151180</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>142239</v>
+        <v>143105</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>158056</v>
+        <v>158009</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8524274415788627</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8020175139443801</v>
+        <v>0.8068964717950818</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8912004937616296</v>
+        <v>0.8909333472155361</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>407</v>
@@ -1461,19 +1461,19 @@
         <v>287037</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>272824</v>
+        <v>270435</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>298445</v>
+        <v>297008</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8395100631771416</v>
+        <v>0.8395100631771415</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7979420410761295</v>
+        <v>0.7909523655517167</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8728766717679306</v>
+        <v>0.8686719540332737</v>
       </c>
     </row>
     <row r="15">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8841</v>
+        <v>8346</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008581070016559545</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03239163058302869</v>
+        <v>0.03057830541651412</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1586,19 +1586,19 @@
         <v>3597</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>872</v>
+        <v>1288</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7758</v>
+        <v>7651</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.01456871467034305</v>
+        <v>0.01456871467034304</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003530506612647634</v>
+        <v>0.005218275896928767</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03142583856367388</v>
+        <v>0.03099037251121883</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1607,19 +1607,19 @@
         <v>5939</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2767</v>
+        <v>2572</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12618</v>
+        <v>12476</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01142473679672154</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005323778672471234</v>
+        <v>0.004948213910710713</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02427327147536184</v>
+        <v>0.02400137610879811</v>
       </c>
     </row>
     <row r="17">
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9740</v>
+        <v>10122</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0102328542988566</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0356854707825067</v>
+        <v>0.03708589912873503</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1657,19 +1657,19 @@
         <v>3292</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>738</v>
+        <v>1095</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8380</v>
+        <v>8053</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0133349144100903</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002988545882922266</v>
+        <v>0.004437106501748875</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03394446918416334</v>
+        <v>0.03261910905854377</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -1678,19 +1678,19 @@
         <v>6085</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2127</v>
+        <v>2502</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12881</v>
+        <v>13547</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01170609224105928</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004092768524768378</v>
+        <v>0.004812966094250692</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02478059008311599</v>
+        <v>0.0260610211474822</v>
       </c>
     </row>
     <row r="18">
@@ -1801,19 +1801,19 @@
         <v>4423</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1325</v>
+        <v>1117</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10884</v>
+        <v>11263</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01620332261150021</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004854742849773111</v>
+        <v>0.004093698194586354</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03987764891367111</v>
+        <v>0.04126587503513067</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1822,19 +1822,19 @@
         <v>2081</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6231</v>
+        <v>6024</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.008429039192525762</v>
+        <v>0.00842903919252576</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002581172659188908</v>
+        <v>0.002576870839637579</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02524048210541714</v>
+        <v>0.02440325163686163</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1843,19 +1843,19 @@
         <v>6503</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3023</v>
+        <v>2974</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13625</v>
+        <v>14920</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01251114099812867</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00581621828529168</v>
+        <v>0.005720448023261193</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02621052237243983</v>
+        <v>0.02870321641380533</v>
       </c>
     </row>
     <row r="21">
@@ -1872,19 +1872,19 @@
         <v>10893</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4528</v>
+        <v>4363</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>27655</v>
+        <v>27810</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03990977089151556</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01658941061184532</v>
+        <v>0.01598653762788262</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1013229996542978</v>
+        <v>0.1018884334370332</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1896,16 +1896,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4444</v>
+        <v>5461</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.005904965350507307</v>
+        <v>0.005904965350507305</v>
       </c>
       <c r="O21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01800016092089533</v>
+        <v>0.02212061599012583</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -1914,19 +1914,19 @@
         <v>12351</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5347</v>
+        <v>5683</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>29479</v>
+        <v>27237</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02376012583505227</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01028561555148908</v>
+        <v>0.01093206865284574</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05671013140412067</v>
+        <v>0.05239749984508642</v>
       </c>
     </row>
     <row r="22">
@@ -1943,19 +1943,19 @@
         <v>9507</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3213</v>
+        <v>3368</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23040</v>
+        <v>21788</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03483124948850244</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01177164370182242</v>
+        <v>0.01234031053785854</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0844133121603588</v>
+        <v>0.07982596895960153</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -1964,19 +1964,19 @@
         <v>8234</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2976</v>
+        <v>3175</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19684</v>
+        <v>18874</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03335302228249277</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01205372981155822</v>
+        <v>0.0128613827166137</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0797350550272955</v>
+        <v>0.07645244826562805</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -1985,19 +1985,19 @@
         <v>17741</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9329</v>
+        <v>9302</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32456</v>
+        <v>32311</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03412920622402695</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01794701216347982</v>
+        <v>0.01789537253703416</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06243858655076095</v>
+        <v>0.06215925758434531</v>
       </c>
     </row>
     <row r="23">
@@ -2014,19 +2014,19 @@
         <v>5093</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1126</v>
+        <v>1096</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15796</v>
+        <v>14485</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01866094843438138</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004126053393875823</v>
+        <v>0.004014046187390479</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05787442723206882</v>
+        <v>0.05307135220956685</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2035,19 +2035,19 @@
         <v>5612</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2681</v>
+        <v>2667</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11726</v>
+        <v>10742</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02273195590932669</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01086117630568597</v>
+        <v>0.01080227016708258</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04749954846560849</v>
+        <v>0.04351205857491652</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
@@ -2056,19 +2056,19 @@
         <v>10705</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5227</v>
+        <v>5454</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21454</v>
+        <v>20551</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02059436121815071</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01005624642314068</v>
+        <v>0.01049178360803217</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04127181711374711</v>
+        <v>0.03953616594809854</v>
       </c>
     </row>
     <row r="24">
@@ -2085,19 +2085,19 @@
         <v>23602</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14227</v>
+        <v>13687</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>40916</v>
+        <v>39647</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.0864714433655802</v>
+        <v>0.08647144336558019</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05212434699379477</v>
+        <v>0.05014638351110366</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1499081466979311</v>
+        <v>0.1452592820330001</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -2106,19 +2106,19 @@
         <v>15269</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10247</v>
+        <v>9836</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22439</v>
+        <v>22851</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.06185213472952125</v>
+        <v>0.06185213472952124</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04150590253385882</v>
+        <v>0.03984422047838172</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09089548702155477</v>
+        <v>0.09256408338498259</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>36</v>
@@ -2127,19 +2127,19 @@
         <v>38871</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>26233</v>
+        <v>26174</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>55252</v>
+        <v>55143</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07477918135489485</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05046539072456463</v>
+        <v>0.05035305370865243</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1062915347050404</v>
+        <v>0.1060827603035184</v>
       </c>
     </row>
     <row r="25">
@@ -2156,19 +2156,19 @@
         <v>7568</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2396</v>
+        <v>2579</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22090</v>
+        <v>21501</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.02772888998254424</v>
+        <v>0.02772888998254425</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008776930601462903</v>
+        <v>0.009450380966568051</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08093120042893782</v>
+        <v>0.07877531592890827</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2177,19 +2177,19 @@
         <v>9211</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4671</v>
+        <v>4673</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19621</v>
+        <v>20091</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03731195372104976</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01892149765672564</v>
+        <v>0.01893031265405848</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07948065108020937</v>
+        <v>0.08138192026747433</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -2198,19 +2198,19 @@
         <v>16780</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9111</v>
+        <v>8714</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>30140</v>
+        <v>35508</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03228010195003193</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01752728690865978</v>
+        <v>0.01676377255763013</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05798196932584148</v>
+        <v>0.06830925481176901</v>
       </c>
     </row>
     <row r="26">
@@ -2227,19 +2227,19 @@
         <v>206721</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>186918</v>
+        <v>186847</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>224883</v>
+        <v>223487</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7573804509105598</v>
+        <v>0.7573804509105599</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6848275488011862</v>
+        <v>0.6845649978206597</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8239238805675092</v>
+        <v>0.8188062972330673</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>275</v>
@@ -2248,19 +2248,19 @@
         <v>198117</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>184651</v>
+        <v>184931</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>209369</v>
+        <v>208857</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8025132997341431</v>
+        <v>0.8025132997341429</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7479647587520822</v>
+        <v>0.7490977827979407</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8480925029522153</v>
+        <v>0.8460147422301035</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>427</v>
@@ -2269,19 +2269,19 @@
         <v>404838</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>378229</v>
+        <v>381652</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>424900</v>
+        <v>426768</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7788150533819338</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7276258779243101</v>
+        <v>0.7342094358409673</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8174094544556375</v>
+        <v>0.8210031644451686</v>
       </c>
     </row>
     <row r="27">
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5864</v>
+        <v>5083</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.005154628620713713</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03087136040978269</v>
+        <v>0.02675728238531161</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4053</v>
+        <v>4875</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.002596792531355419</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01074982599553911</v>
+        <v>0.01292845154584586</v>
       </c>
     </row>
     <row r="30">
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>4613</v>
+        <v>4569</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.00479938849292713</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02428341307228982</v>
+        <v>0.02405145032404902</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>7285</v>
+        <v>7075</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.006639932783289355</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.03893428999625263</v>
+        <v>0.03781641864060575</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>7877</v>
+        <v>6970</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.005712705621348887</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02089094487819666</v>
+        <v>0.01848621904540821</v>
       </c>
     </row>
     <row r="34">
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8599</v>
+        <v>9706</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.009148117942611894</v>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04526971984070115</v>
+        <v>0.05109652165299609</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4071</v>
+        <v>3979</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.006112386022175998</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02176042558687221</v>
+        <v>0.02126598970612214</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -2737,19 +2737,19 @@
         <v>2881</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10229</v>
+        <v>10061</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.00764172335338681</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001515578777920003</v>
+        <v>0.001508519844984678</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0271281801716755</v>
+        <v>0.02668446318121729</v>
       </c>
     </row>
     <row r="35">
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5336</v>
+        <v>5272</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.008026904069983333</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02809175113504284</v>
+        <v>0.0277574094204838</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>3459</v>
+        <v>4129</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.003749607185126137</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0184851432208623</v>
+        <v>0.02206946307575764</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3</v>
@@ -2808,19 +2808,19 @@
         <v>2226</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>6652</v>
+        <v>6568</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.005904418602645688</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001619689470143609</v>
+        <v>0.001638155568977037</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01764153681371383</v>
+        <v>0.01741887266315381</v>
       </c>
     </row>
     <row r="36">
@@ -2837,19 +2837,19 @@
         <v>11384</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5510</v>
+        <v>5042</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20375</v>
+        <v>20043</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05993043938777367</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02900861128226086</v>
+        <v>0.02654421052224505</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.107264968197811</v>
+        <v>0.1055167000324748</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>13</v>
@@ -2858,19 +2858,19 @@
         <v>9468</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5351</v>
+        <v>5091</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>15455</v>
+        <v>15167</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05060381693304694</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02860203614421034</v>
+        <v>0.02720778494143994</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.08260578089475178</v>
+        <v>0.08106378466352494</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>22</v>
@@ -2879,19 +2879,19 @@
         <v>20852</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>12745</v>
+        <v>12947</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>31858</v>
+        <v>30948</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05530237143916239</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03380127465792133</v>
+        <v>0.03433683058651124</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0844929167568038</v>
+        <v>0.08208024263171321</v>
       </c>
     </row>
     <row r="37">
@@ -2908,19 +2908,19 @@
         <v>26499</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>17601</v>
+        <v>17563</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>38606</v>
+        <v>37677</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1395084243935505</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09266134825851965</v>
+        <v>0.09246366336333636</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2032464346869345</v>
+        <v>0.1983519565266484</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>35</v>
@@ -2929,19 +2929,19 @@
         <v>32287</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>22962</v>
+        <v>22509</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>43430</v>
+        <v>42735</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1725652022253075</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1227254170702891</v>
+        <v>0.1203056368800002</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2321236660425367</v>
+        <v>0.2284105867455187</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>59</v>
@@ -2950,19 +2950,19 @@
         <v>58786</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>45733</v>
+        <v>45309</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>73630</v>
+        <v>73981</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1559118989321798</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1212907641686739</v>
+        <v>0.1201677964156639</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1952799669820942</v>
+        <v>0.1962118293595018</v>
       </c>
     </row>
     <row r="38">
@@ -2979,19 +2979,19 @@
         <v>146913</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>132809</v>
+        <v>134572</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>158390</v>
+        <v>157735</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7734320970924399</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6991805211073812</v>
+        <v>0.7084629219634441</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8338576617328619</v>
+        <v>0.8304082308270802</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>229</v>
@@ -3000,19 +3000,19 @@
         <v>142257</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>131239</v>
+        <v>130771</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>152233</v>
+        <v>152587</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7603290548510538</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7014403058868853</v>
+        <v>0.6989387412317988</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8136515122981419</v>
+        <v>0.8155418629406074</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>404</v>
@@ -3021,19 +3021,19 @@
         <v>289170</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>272959</v>
+        <v>272727</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>304672</v>
+        <v>304490</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.7669300895199209</v>
+        <v>0.7669300895199211</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7239349671117978</v>
+        <v>0.7233205981125714</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8080442774461858</v>
+        <v>0.8075605140988523</v>
       </c>
     </row>
     <row r="39">
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>12108</v>
+        <v>15346</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01455136616601634</v>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06094310770847799</v>
+        <v>0.0772353336643261</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -3149,16 +3149,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>8618</v>
+        <v>8821</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.009696274882178224</v>
+        <v>0.009696274882178226</v>
       </c>
       <c r="O40" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03909320872070066</v>
+        <v>0.04001514632197042</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -3167,19 +3167,19 @@
         <v>5029</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1367</v>
+        <v>1510</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>14881</v>
+        <v>12661</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.01199774540647729</v>
+        <v>0.0119977454064773</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.003261494985288487</v>
+        <v>0.003602792734884305</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03550481244120409</v>
+        <v>0.03020752432858973</v>
       </c>
     </row>
     <row r="41">
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7702</v>
+        <v>9697</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01164396177659326</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03876323185151313</v>
+        <v>0.04880346160692693</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -3233,16 +3233,16 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>8216</v>
+        <v>9162</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.005519615028475725</v>
+        <v>0.005519615028475726</v>
       </c>
       <c r="V41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01960332497908554</v>
+        <v>0.02185996019373844</v>
       </c>
     </row>
     <row r="42">
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>13516</v>
+        <v>8770</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01039077956037868</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.06802763008138457</v>
+        <v>0.04413801425135697</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>3</v>
@@ -3374,19 +3374,19 @@
         <v>1513</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>4686</v>
+        <v>4748</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.006863739600136773</v>
+        <v>0.006863739600136775</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.001639175665312741</v>
+        <v>0.001591006200602745</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0212547995156178</v>
+        <v>0.02153654038426794</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>4</v>
@@ -3395,19 +3395,19 @@
         <v>3578</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>807</v>
+        <v>758</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>10712</v>
+        <v>12231</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.008535670781645814</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0019243000067521</v>
+        <v>0.001808383545796067</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02555825272264656</v>
+        <v>0.02918046504649372</v>
       </c>
     </row>
     <row r="45">
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>4175</v>
+        <v>3871</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.005401103512773855</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.01893963792097095</v>
+        <v>0.01755873745551622</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>2</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>4607</v>
+        <v>4383</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.002840805506695904</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.01099167053497494</v>
+        <v>0.01045707632848058</v>
       </c>
     </row>
     <row r="46">
@@ -3487,19 +3487,19 @@
         <v>8755</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1702</v>
+        <v>1658</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>25050</v>
+        <v>24510</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.04406280447737049</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.008564785034643906</v>
+        <v>0.008343686933469839</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1260765199364925</v>
+        <v>0.123362462474574</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>16</v>
@@ -3508,19 +3508,19 @@
         <v>15238</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>8548</v>
+        <v>8512</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>28694</v>
+        <v>27876</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.06911975506144488</v>
+        <v>0.0691197550614449</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03877487875830701</v>
+        <v>0.03861275941578517</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1301610073254064</v>
+        <v>0.1264471547024899</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>20</v>
@@ -3529,19 +3529,19 @@
         <v>23992</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>13981</v>
+        <v>13629</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>41283</v>
+        <v>40734</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.05724194889330276</v>
+        <v>0.05724194889330277</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.03335769985578586</v>
+        <v>0.03251680220625504</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.09849600411485497</v>
+        <v>0.09718621531188718</v>
       </c>
     </row>
     <row r="47">
@@ -3558,19 +3558,19 @@
         <v>8652</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3165</v>
+        <v>3235</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>22173</v>
+        <v>22634</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04354734746325686</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01592895990653059</v>
+        <v>0.0162829005481439</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1116010016522625</v>
+        <v>0.1139209212300685</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3</v>
@@ -3579,19 +3579,19 @@
         <v>1564</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>4396</v>
+        <v>4370</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.007095567614606867</v>
+        <v>0.007095567614606868</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.001583155968190966</v>
+        <v>0.001614905992529857</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.019942503026558</v>
+        <v>0.0198245585799095</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>9</v>
@@ -3600,19 +3600,19 @@
         <v>10216</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4412</v>
+        <v>4721</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>24287</v>
+        <v>23580</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.02437489193115949</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01052529183028579</v>
+        <v>0.01126339885651062</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.05794502871078971</v>
+        <v>0.0562581662814688</v>
       </c>
     </row>
     <row r="48">
@@ -3629,19 +3629,19 @@
         <v>20866</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>11096</v>
+        <v>11319</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>36347</v>
+        <v>38566</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1050229159739889</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.05584696060577273</v>
+        <v>0.05696802286026893</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.18293873149986</v>
+        <v>0.1941081246848531</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>36</v>
@@ -3650,19 +3650,19 @@
         <v>21481</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>14852</v>
+        <v>14720</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>30018</v>
+        <v>29160</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.09744145663713139</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.06737014160183472</v>
+        <v>0.0667700500123409</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1361647670956134</v>
+        <v>0.1322709342651403</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>48</v>
@@ -3671,19 +3671,19 @@
         <v>42348</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>31174</v>
+        <v>30337</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>59590</v>
+        <v>60535</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.1010353139252596</v>
+        <v>0.1010353139252597</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.07437763444562415</v>
+        <v>0.07237865676374089</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1421734967672971</v>
+        <v>0.1444268974390648</v>
       </c>
     </row>
     <row r="49">
@@ -3700,19 +3700,19 @@
         <v>9272</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>4292</v>
+        <v>4166</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>17012</v>
+        <v>17070</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.04666528307055615</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02160234497009613</v>
+        <v>0.020969399694977</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.08562215704258024</v>
+        <v>0.08591507321624432</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>8</v>
@@ -3721,19 +3721,19 @@
         <v>5078</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>2057</v>
+        <v>2354</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>9954</v>
+        <v>10231</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.02303262037334598</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.009328900060721863</v>
+        <v>0.01067811273470395</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.04515288684593678</v>
+        <v>0.04640823339130949</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>18</v>
@@ -3742,19 +3742,19 @@
         <v>14349</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>8711</v>
+        <v>7769</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>22971</v>
+        <v>21752</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.03423526795061959</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.0207826288764006</v>
+        <v>0.01853544124902865</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.05480617720658953</v>
+        <v>0.05189717335738095</v>
       </c>
     </row>
     <row r="50">
@@ -3771,19 +3771,19 @@
         <v>143871</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>124599</v>
+        <v>122953</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>160833</v>
+        <v>157957</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.7241155415118392</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.6271197823584935</v>
+        <v>0.6188355808902439</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.8094860781718393</v>
+        <v>0.7950146339780731</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>251</v>
@@ -3792,19 +3792,19 @@
         <v>172251</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>159574</v>
+        <v>157477</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>183171</v>
+        <v>182389</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.7813494823183819</v>
+        <v>0.781349482318382</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.7238470932077701</v>
+        <v>0.7143340428483057</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.8308825459187603</v>
+        <v>0.827338909440929</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>375</v>
@@ -3813,19 +3813,19 @@
         <v>316122</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>294802</v>
+        <v>292586</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>335149</v>
+        <v>334701</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.754218740576364</v>
+        <v>0.7542187405763638</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.7033520702859726</v>
+        <v>0.6980671581777845</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.7996156564786718</v>
+        <v>0.7985465881907884</v>
       </c>
     </row>
     <row r="51">
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>4657</v>
+        <v>4282</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.006888768387716</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.04112158556135375</v>
+        <v>0.03780858828323357</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>2065</v>
+        <v>2004</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.002891414611932395</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.01490063822527726</v>
+        <v>0.01446265489145056</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>2</v>
@@ -4150,16 +4150,16 @@
         <v>0</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>4262</v>
+        <v>4283</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.00468900592460661</v>
+        <v>0.004689005924606609</v>
       </c>
       <c r="V56" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.01692283316433889</v>
+        <v>0.01700761019967245</v>
       </c>
     </row>
     <row r="57">
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>3602</v>
+        <v>3611</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.006431239518777825</v>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.03180524173224814</v>
+        <v>0.03188952312134612</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>1</v>
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>2589</v>
+        <v>2309</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.00328547890206474</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.01868545800177489</v>
+        <v>0.0166631210552604</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>2</v>
@@ -4315,16 +4315,16 @@
         <v>0</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>4382</v>
+        <v>4904</v>
       </c>
       <c r="U59" s="6" t="n">
-        <v>0.004700112750740696</v>
+        <v>0.004700112750740695</v>
       </c>
       <c r="V59" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.01739940705469186</v>
+        <v>0.01947271760226932</v>
       </c>
     </row>
     <row r="60">
@@ -4341,19 +4341,19 @@
         <v>3752</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>1345</v>
+        <v>1309</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>7670</v>
+        <v>8186</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.03313111873720871</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.01187642836960526</v>
+        <v>0.01155754318843947</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.06773257983077532</v>
+        <v>0.07228749674683761</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>10</v>
@@ -4362,19 +4362,19 @@
         <v>4164</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>2208</v>
+        <v>2242</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>7930</v>
+        <v>7625</v>
       </c>
       <c r="N60" s="6" t="n">
-        <v>0.03005099816239518</v>
+        <v>0.03005099816239519</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.01593088659553879</v>
+        <v>0.01618076331034791</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.05722387926628286</v>
+        <v>0.05502269310379802</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>16</v>
@@ -4383,19 +4383,19 @@
         <v>7916</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>4667</v>
+        <v>4861</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>13046</v>
+        <v>13570</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.03143611399097569</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.01853217554491168</v>
+        <v>0.0193050082174152</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.05180732367135064</v>
+        <v>0.05388510840676129</v>
       </c>
     </row>
     <row r="61">
@@ -4412,19 +4412,19 @@
         <v>58570</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>49916</v>
+        <v>49609</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>68312</v>
+        <v>67234</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.5172040108181909</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.4407810282939049</v>
+        <v>0.438074677827906</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.6032325395487241</v>
+        <v>0.5937123870153342</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>150</v>
@@ -4433,19 +4433,19 @@
         <v>65235</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>56261</v>
+        <v>56692</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>73441</v>
+        <v>73298</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.4707398209648189</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.4059806140863294</v>
+        <v>0.4090908906828147</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.5299521624652566</v>
+        <v>0.5289190322678896</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>233</v>
@@ -4454,19 +4454,19 @@
         <v>123806</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>112273</v>
+        <v>112536</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>135851</v>
+        <v>137458</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.4916345500070323</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.4458392795435408</v>
+        <v>0.446882840579407</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.5394648627406309</v>
+        <v>0.5458492683585987</v>
       </c>
     </row>
     <row r="62">
@@ -4483,19 +4483,19 @@
         <v>49413</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>39832</v>
+        <v>40507</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>57737</v>
+        <v>58324</v>
       </c>
       <c r="G62" s="6" t="n">
-        <v>0.4363448625381066</v>
+        <v>0.4363448625381067</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.351732471182758</v>
+        <v>0.3576998518498636</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.5098493622601949</v>
+        <v>0.5150279560089223</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>146</v>
@@ -4504,19 +4504,19 @@
         <v>68324</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>60217</v>
+        <v>59870</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>77729</v>
+        <v>76784</v>
       </c>
       <c r="N62" s="6" t="n">
-        <v>0.4930322873587886</v>
+        <v>0.4930322873587887</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.4345269698032644</v>
+        <v>0.4320234933870761</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.5608952888380591</v>
+        <v>0.5540793189572911</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>215</v>
@@ -4525,19 +4525,19 @@
         <v>117738</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>105366</v>
+        <v>105213</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>129151</v>
+        <v>129562</v>
       </c>
       <c r="U62" s="6" t="n">
-        <v>0.4675402173266448</v>
+        <v>0.4675402173266447</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.418411141327812</v>
+        <v>0.4178035351868142</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.5128614978214755</v>
+        <v>0.5144935156687123</v>
       </c>
     </row>
     <row r="63">
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>2815</v>
+        <v>2922</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.003556353373981304</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.02011334024283319</v>
+        <v>0.02087977488526216</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>3</v>
@@ -4932,19 +4932,19 @@
         <v>2320</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>7272</v>
+        <v>7045</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.01619468610158865</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.003368261823008566</v>
+        <v>0.0033202061064048</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.05075618678603859</v>
+        <v>0.04917117651806648</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>4</v>
@@ -4953,19 +4953,19 @@
         <v>2818</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>6963</v>
+        <v>7003</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.009949355785857617</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.002361745393386891</v>
+        <v>0.002393483558405722</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.02458392544460893</v>
+        <v>0.02472636905894683</v>
       </c>
     </row>
     <row r="71">
@@ -4982,19 +4982,19 @@
         <v>3438</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>923</v>
+        <v>879</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>8743</v>
+        <v>8543</v>
       </c>
       <c r="G71" s="6" t="n">
-        <v>0.02456327068375682</v>
+        <v>0.02456327068375681</v>
       </c>
       <c r="H71" s="6" t="n">
-        <v>0.006596967382080363</v>
+        <v>0.006282865152185704</v>
       </c>
       <c r="I71" s="6" t="n">
-        <v>0.06246314394135228</v>
+        <v>0.06104052276823481</v>
       </c>
       <c r="J71" s="5" t="n">
         <v>1</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="5" t="n">
-        <v>3165</v>
+        <v>3505</v>
       </c>
       <c r="N71" s="6" t="n">
         <v>0.004369226124752144</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="6" t="n">
-        <v>0.02208922262187964</v>
+        <v>0.02446623211954266</v>
       </c>
       <c r="Q71" s="5" t="n">
         <v>5</v>
@@ -5024,19 +5024,19 @@
         <v>4064</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>1392</v>
+        <v>1116</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>9409</v>
+        <v>8958</v>
       </c>
       <c r="U71" s="6" t="n">
         <v>0.01434827014897539</v>
       </c>
       <c r="V71" s="6" t="n">
-        <v>0.004914246258550982</v>
+        <v>0.003938559272344125</v>
       </c>
       <c r="W71" s="6" t="n">
-        <v>0.03322035086858078</v>
+        <v>0.03162626514993194</v>
       </c>
     </row>
     <row r="72">
@@ -5053,19 +5053,19 @@
         <v>4785</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>2164</v>
+        <v>2373</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>9828</v>
+        <v>10296</v>
       </c>
       <c r="G72" s="6" t="n">
         <v>0.03418558536447451</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>0.01545840624333535</v>
+        <v>0.01695286772481525</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.07022119626310087</v>
+        <v>0.07356239957356324</v>
       </c>
       <c r="J72" s="5" t="n">
         <v>12</v>
@@ -5074,19 +5074,19 @@
         <v>7531</v>
       </c>
       <c r="L72" s="5" t="n">
-        <v>3797</v>
+        <v>4232</v>
       </c>
       <c r="M72" s="5" t="n">
-        <v>12924</v>
+        <v>13545</v>
       </c>
       <c r="N72" s="6" t="n">
         <v>0.05256287170059899</v>
       </c>
       <c r="O72" s="6" t="n">
-        <v>0.02650214080008589</v>
+        <v>0.02953928589418191</v>
       </c>
       <c r="P72" s="6" t="n">
-        <v>0.09020506419136838</v>
+        <v>0.09454236021392004</v>
       </c>
       <c r="Q72" s="5" t="n">
         <v>20</v>
@@ -5095,19 +5095,19 @@
         <v>12316</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>7418</v>
+        <v>7863</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>19550</v>
+        <v>19741</v>
       </c>
       <c r="U72" s="6" t="n">
         <v>0.04348159286821329</v>
       </c>
       <c r="V72" s="6" t="n">
-        <v>0.02618901339427679</v>
+        <v>0.02776041095956482</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.06902496800909964</v>
+        <v>0.06969821726922679</v>
       </c>
     </row>
     <row r="73">
@@ -5124,19 +5124,19 @@
         <v>18550</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>11255</v>
+        <v>11830</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>26028</v>
+        <v>27240</v>
       </c>
       <c r="G73" s="6" t="n">
         <v>0.1325368738558699</v>
       </c>
       <c r="H73" s="6" t="n">
-        <v>0.0804144061715753</v>
+        <v>0.08452373619158614</v>
       </c>
       <c r="I73" s="6" t="n">
-        <v>0.1859625552293155</v>
+        <v>0.1946230703177657</v>
       </c>
       <c r="J73" s="5" t="n">
         <v>19</v>
@@ -5145,19 +5145,19 @@
         <v>14125</v>
       </c>
       <c r="L73" s="5" t="n">
-        <v>8286</v>
+        <v>8657</v>
       </c>
       <c r="M73" s="5" t="n">
-        <v>21607</v>
+        <v>21573</v>
       </c>
       <c r="N73" s="6" t="n">
-        <v>0.09858948869471854</v>
+        <v>0.09858948869471855</v>
       </c>
       <c r="O73" s="6" t="n">
-        <v>0.05783160732706646</v>
+        <v>0.06042408075120692</v>
       </c>
       <c r="P73" s="6" t="n">
-        <v>0.1508062405311945</v>
+        <v>0.1505684645371506</v>
       </c>
       <c r="Q73" s="5" t="n">
         <v>42</v>
@@ -5166,19 +5166,19 @@
         <v>32676</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>23127</v>
+        <v>23584</v>
       </c>
       <c r="T73" s="5" t="n">
-        <v>43274</v>
+        <v>43847</v>
       </c>
       <c r="U73" s="6" t="n">
         <v>0.1153648528393586</v>
       </c>
       <c r="V73" s="6" t="n">
-        <v>0.08165380171331255</v>
+        <v>0.08326518473197725</v>
       </c>
       <c r="W73" s="6" t="n">
-        <v>0.1527837374893546</v>
+        <v>0.1548053003812335</v>
       </c>
     </row>
     <row r="74">
@@ -5195,19 +5195,19 @@
         <v>112693</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>104437</v>
+        <v>103637</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>121346</v>
+        <v>120775</v>
       </c>
       <c r="G74" s="6" t="n">
-        <v>0.8051579167219176</v>
+        <v>0.8051579167219175</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.7461722757586831</v>
+        <v>0.7404531103730924</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.8669823523121829</v>
+        <v>0.8629008811867911</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>210</v>
@@ -5216,19 +5216,19 @@
         <v>118672</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>110062</v>
+        <v>110295</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>126017</v>
+        <v>126013</v>
       </c>
       <c r="N74" s="6" t="n">
-        <v>0.8282837273783419</v>
+        <v>0.8282837273783417</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.7681897202492144</v>
+        <v>0.7698158928651578</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.8795501439613203</v>
+        <v>0.8795230801331482</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>362</v>
@@ -5237,19 +5237,19 @@
         <v>231365</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>219029</v>
+        <v>218454</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>242297</v>
+        <v>242208</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.8168559283575949</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.7733054003234243</v>
+        <v>0.7712748676061377</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.8554534422495775</v>
+        <v>0.8551388437408415</v>
       </c>
     </row>
     <row r="75">
@@ -5341,19 +5341,19 @@
         <v>5457</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>1949</v>
+        <v>2036</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>12237</v>
+        <v>12617</v>
       </c>
       <c r="G76" s="6" t="n">
         <v>0.01697146445288826</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.006062756322461566</v>
+        <v>0.006332309202191781</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.03805697208644079</v>
+        <v>0.03923991188090769</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>2</v>
@@ -5365,16 +5365,16 @@
         <v>0</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>4275</v>
+        <v>4318</v>
       </c>
       <c r="N76" s="6" t="n">
-        <v>0.003948414026315782</v>
+        <v>0.003948414026315781</v>
       </c>
       <c r="O76" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.01197492032368118</v>
+        <v>0.0120932123190376</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>7</v>
@@ -5383,19 +5383,19 @@
         <v>6867</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>2865</v>
+        <v>2870</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>13707</v>
+        <v>13773</v>
       </c>
       <c r="U76" s="6" t="n">
-        <v>0.01011946439906243</v>
+        <v>0.01011946439906242</v>
       </c>
       <c r="V76" s="6" t="n">
-        <v>0.004221392441982893</v>
+        <v>0.004229003804896523</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.02020025839822065</v>
+        <v>0.02029708492438377</v>
       </c>
     </row>
     <row r="77">
@@ -5412,19 +5412,19 @@
         <v>6906</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>2727</v>
+        <v>2639</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>15889</v>
+        <v>14901</v>
       </c>
       <c r="G77" s="6" t="n">
-        <v>0.02147788033136334</v>
+        <v>0.02147788033136333</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.008480012079188252</v>
+        <v>0.008206016498652191</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.04941598983965534</v>
+        <v>0.04634307087618693</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>9</v>
@@ -5433,19 +5433,19 @@
         <v>6300</v>
       </c>
       <c r="L77" s="5" t="n">
-        <v>2853</v>
+        <v>2877</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>11520</v>
+        <v>11895</v>
       </c>
       <c r="N77" s="6" t="n">
         <v>0.0176471507570491</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>0.007990377310602738</v>
+        <v>0.008058125171521144</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.03226545001490263</v>
+        <v>0.03331738869748987</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>15</v>
@@ -5454,19 +5454,19 @@
         <v>13207</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>7655</v>
+        <v>7540</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>22597</v>
+        <v>24459</v>
       </c>
       <c r="U77" s="6" t="n">
         <v>0.01946236488838877</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.01128102990794077</v>
+        <v>0.01111170308166373</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.03330061721838205</v>
+        <v>0.03604480358757878</v>
       </c>
     </row>
     <row r="78">
@@ -5483,19 +5483,19 @@
         <v>3949</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>11295</v>
+        <v>11389</v>
       </c>
       <c r="G78" s="6" t="n">
         <v>0.01228200221766308</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.003476675807222082</v>
+        <v>0.003467300652368554</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.03512725594974096</v>
+        <v>0.03541983212462518</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>2</v>
@@ -5507,16 +5507,16 @@
         <v>0</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>4899</v>
+        <v>4706</v>
       </c>
       <c r="N78" s="6" t="n">
-        <v>0.003919539715080491</v>
+        <v>0.00391953971508049</v>
       </c>
       <c r="O78" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>0.0137213121101674</v>
+        <v>0.01318004120185475</v>
       </c>
       <c r="Q78" s="5" t="n">
         <v>5</v>
@@ -5525,19 +5525,19 @@
         <v>5349</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>1889</v>
+        <v>1849</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>12081</v>
+        <v>12654</v>
       </c>
       <c r="U78" s="6" t="n">
         <v>0.00788214261173717</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.002783284388450633</v>
+        <v>0.00272458488625399</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.01780402938620206</v>
+        <v>0.01864741542845253</v>
       </c>
     </row>
     <row r="79">
@@ -5567,19 +5567,19 @@
         <v>2610</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>6937</v>
+        <v>7235</v>
       </c>
       <c r="N79" s="6" t="n">
-        <v>0.007309224239075612</v>
+        <v>0.007309224239075611</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0.001950107928307818</v>
+        <v>0.001990293447399948</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.01943085418438089</v>
+        <v>0.02026343271304802</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>3</v>
@@ -5588,19 +5588,19 @@
         <v>2610</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>7470</v>
+        <v>7108</v>
       </c>
       <c r="U79" s="6" t="n">
         <v>0.003845704596012414</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.001040907706412595</v>
+        <v>0.001049320333984214</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.01100849838938287</v>
+        <v>0.01047491218930357</v>
       </c>
     </row>
     <row r="80">
@@ -5617,19 +5617,19 @@
         <v>6423</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>3027</v>
+        <v>2940</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>14287</v>
+        <v>14305</v>
       </c>
       <c r="G80" s="6" t="n">
         <v>0.0199747301318621</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.009414195597299523</v>
+        <v>0.009144904700137591</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.04443374703293572</v>
+        <v>0.04448876543724126</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>12</v>
@@ -5638,19 +5638,19 @@
         <v>9844</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>5175</v>
+        <v>5449</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>16893</v>
+        <v>17229</v>
       </c>
       <c r="N80" s="6" t="n">
         <v>0.02757287130237549</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.01449598482198292</v>
+        <v>0.01526341033318543</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.04731478129885133</v>
+        <v>0.04825724382785428</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>18</v>
@@ -5659,19 +5659,19 @@
         <v>16267</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>9813</v>
+        <v>9833</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>27180</v>
+        <v>25256</v>
       </c>
       <c r="U80" s="6" t="n">
         <v>0.02397244664251193</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.0144608016991654</v>
+        <v>0.01449080988129233</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.04005467782548187</v>
+        <v>0.03721960093755924</v>
       </c>
     </row>
     <row r="81">
@@ -5688,19 +5688,19 @@
         <v>5020</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>1163</v>
+        <v>1172</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>12406</v>
+        <v>11695</v>
       </c>
       <c r="G81" s="6" t="n">
         <v>0.01561153904062091</v>
       </c>
       <c r="H81" s="6" t="n">
-        <v>0.00361699823563385</v>
+        <v>0.003643930628351842</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.03858117167056057</v>
+        <v>0.03637189249986659</v>
       </c>
       <c r="J81" s="5" t="n">
         <v>8</v>
@@ -5709,19 +5709,19 @@
         <v>6053</v>
       </c>
       <c r="L81" s="5" t="n">
-        <v>2820</v>
+        <v>2756</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>11566</v>
+        <v>11149</v>
       </c>
       <c r="N81" s="6" t="n">
         <v>0.01695314188797514</v>
       </c>
       <c r="O81" s="6" t="n">
-        <v>0.007899595504961266</v>
+        <v>0.007719069781017842</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>0.0323950679045879</v>
+        <v>0.03122665903451283</v>
       </c>
       <c r="Q81" s="5" t="n">
         <v>12</v>
@@ -5730,19 +5730,19 @@
         <v>11072</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>6195</v>
+        <v>5948</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>20013</v>
+        <v>19462</v>
       </c>
       <c r="U81" s="6" t="n">
         <v>0.01631741535079224</v>
       </c>
       <c r="V81" s="6" t="n">
-        <v>0.009129311959332219</v>
+        <v>0.008766129210253557</v>
       </c>
       <c r="W81" s="6" t="n">
-        <v>0.02949291765598282</v>
+        <v>0.02868053948303995</v>
       </c>
     </row>
     <row r="82">
@@ -5759,19 +5759,19 @@
         <v>8016</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>3864</v>
+        <v>3305</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>14904</v>
+        <v>14897</v>
       </c>
       <c r="G82" s="6" t="n">
-        <v>0.02492889191279185</v>
+        <v>0.02492889191279184</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.01201832184005549</v>
+        <v>0.01027759750290959</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.04635062534465473</v>
+        <v>0.0463302171555046</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>16</v>
@@ -5780,19 +5780,19 @@
         <v>13391</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>7896</v>
+        <v>8219</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>22560</v>
+        <v>22872</v>
       </c>
       <c r="N82" s="6" t="n">
         <v>0.03750792422674074</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.02211600293024396</v>
+        <v>0.02302213426106525</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.06318988840930458</v>
+        <v>0.06406367315459605</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>24</v>
@@ -5801,19 +5801,19 @@
         <v>21407</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>13624</v>
+        <v>13194</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>31208</v>
+        <v>30932</v>
       </c>
       <c r="U82" s="6" t="n">
-        <v>0.03154727449360318</v>
+        <v>0.03154727449360317</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.020077448639581</v>
+        <v>0.0194444465270159</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.04599131282071208</v>
+        <v>0.04558478261710658</v>
       </c>
     </row>
     <row r="83">
@@ -5830,19 +5830,19 @@
         <v>8839</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>4189</v>
+        <v>4220</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>17358</v>
+        <v>17460</v>
       </c>
       <c r="G83" s="6" t="n">
-        <v>0.02749027618441583</v>
+        <v>0.02749027618441582</v>
       </c>
       <c r="H83" s="6" t="n">
-        <v>0.01302703508368155</v>
+        <v>0.01312499971418989</v>
       </c>
       <c r="I83" s="6" t="n">
-        <v>0.05398421793947789</v>
+        <v>0.05430220561445134</v>
       </c>
       <c r="J83" s="5" t="n">
         <v>6</v>
@@ -5851,19 +5851,19 @@
         <v>4247</v>
       </c>
       <c r="L83" s="5" t="n">
-        <v>1446</v>
+        <v>1454</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>9090</v>
+        <v>9221</v>
       </c>
       <c r="N83" s="6" t="n">
-        <v>0.01189625119024443</v>
+        <v>0.01189625119024442</v>
       </c>
       <c r="O83" s="6" t="n">
-        <v>0.004049184779326069</v>
+        <v>0.00407257764860685</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>0.02546152014198458</v>
+        <v>0.02582830764699538</v>
       </c>
       <c r="Q83" s="5" t="n">
         <v>14</v>
@@ -5872,19 +5872,19 @@
         <v>13087</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>7659</v>
+        <v>7211</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>21953</v>
+        <v>21226</v>
       </c>
       <c r="U83" s="6" t="n">
         <v>0.01928557324620063</v>
       </c>
       <c r="V83" s="6" t="n">
-        <v>0.01128632809872323</v>
+        <v>0.01062606240163389</v>
       </c>
       <c r="W83" s="6" t="n">
-        <v>0.03235143211617991</v>
+        <v>0.03128090059206982</v>
       </c>
     </row>
     <row r="84">
@@ -5901,19 +5901,19 @@
         <v>19856</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>10765</v>
+        <v>11579</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>31648</v>
+        <v>32969</v>
       </c>
       <c r="G84" s="6" t="n">
-        <v>0.06175376254225697</v>
+        <v>0.06175376254225694</v>
       </c>
       <c r="H84" s="6" t="n">
-        <v>0.03347911396219062</v>
+        <v>0.03600989936420852</v>
       </c>
       <c r="I84" s="6" t="n">
-        <v>0.09842445655918772</v>
+        <v>0.1025333799826586</v>
       </c>
       <c r="J84" s="5" t="n">
         <v>23</v>
@@ -5922,19 +5922,19 @@
         <v>19757</v>
       </c>
       <c r="L84" s="5" t="n">
-        <v>12717</v>
+        <v>13105</v>
       </c>
       <c r="M84" s="5" t="n">
-        <v>30947</v>
+        <v>31163</v>
       </c>
       <c r="N84" s="6" t="n">
         <v>0.0553369491228568</v>
       </c>
       <c r="O84" s="6" t="n">
-        <v>0.03561961096797166</v>
+        <v>0.03670668466960246</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>0.08668113969404867</v>
+        <v>0.08728483414992301</v>
       </c>
       <c r="Q84" s="5" t="n">
         <v>38</v>
@@ -5943,19 +5943,19 @@
         <v>39613</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>27368</v>
+        <v>28451</v>
       </c>
       <c r="T84" s="5" t="n">
-        <v>56598</v>
+        <v>58997</v>
       </c>
       <c r="U84" s="6" t="n">
-        <v>0.05837759455895507</v>
+        <v>0.05837759455895506</v>
       </c>
       <c r="V84" s="6" t="n">
-        <v>0.04033193043757764</v>
+        <v>0.04192777693072537</v>
       </c>
       <c r="W84" s="6" t="n">
-        <v>0.08340766943981608</v>
+        <v>0.08694366148811944</v>
       </c>
     </row>
     <row r="85">
@@ -5972,19 +5972,19 @@
         <v>18159</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>10719</v>
+        <v>11719</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>29293</v>
+        <v>28791</v>
       </c>
       <c r="G85" s="6" t="n">
-        <v>0.05647557862872542</v>
+        <v>0.05647557862872541</v>
       </c>
       <c r="H85" s="6" t="n">
-        <v>0.0333362971160685</v>
+        <v>0.03644586588274441</v>
       </c>
       <c r="I85" s="6" t="n">
-        <v>0.09110177544036545</v>
+        <v>0.0895400312714931</v>
       </c>
       <c r="J85" s="5" t="n">
         <v>32</v>
@@ -5993,19 +5993,19 @@
         <v>29909</v>
       </c>
       <c r="L85" s="5" t="n">
-        <v>20058</v>
+        <v>20697</v>
       </c>
       <c r="M85" s="5" t="n">
-        <v>43614</v>
+        <v>44555</v>
       </c>
       <c r="N85" s="6" t="n">
-        <v>0.08377261220261287</v>
+        <v>0.08377261220261285</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>0.05617983166349007</v>
+        <v>0.05796965377770568</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>0.1221612222912682</v>
+        <v>0.1247956663181459</v>
       </c>
       <c r="Q85" s="5" t="n">
         <v>48</v>
@@ -6014,19 +6014,19 @@
         <v>48068</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>35122</v>
+        <v>35800</v>
       </c>
       <c r="T85" s="5" t="n">
-        <v>62893</v>
+        <v>64987</v>
       </c>
       <c r="U85" s="6" t="n">
-        <v>0.07083774950198904</v>
+        <v>0.07083774950198903</v>
       </c>
       <c r="V85" s="6" t="n">
-        <v>0.05175895201579583</v>
+        <v>0.05275831774544572</v>
       </c>
       <c r="W85" s="6" t="n">
-        <v>0.09268486477869758</v>
+        <v>0.09577028141289627</v>
       </c>
     </row>
     <row r="86">
@@ -6043,19 +6043,19 @@
         <v>238917</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>220857</v>
+        <v>220244</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>257365</v>
+        <v>255619</v>
       </c>
       <c r="G86" s="6" t="n">
-        <v>0.7430338745574123</v>
+        <v>0.7430338745574122</v>
       </c>
       <c r="H86" s="6" t="n">
-        <v>0.6868657663299339</v>
+        <v>0.6849610396552244</v>
       </c>
       <c r="I86" s="6" t="n">
-        <v>0.8004053631101046</v>
+        <v>0.7949768839935145</v>
       </c>
       <c r="J86" s="5" t="n">
         <v>337</v>
@@ -6064,19 +6064,19 @@
         <v>262104</v>
       </c>
       <c r="L86" s="5" t="n">
-        <v>243197</v>
+        <v>244917</v>
       </c>
       <c r="M86" s="5" t="n">
-        <v>277016</v>
+        <v>278809</v>
       </c>
       <c r="N86" s="6" t="n">
         <v>0.7341359213296735</v>
       </c>
       <c r="O86" s="6" t="n">
-        <v>0.6811776652187217</v>
+        <v>0.685995268267086</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>0.7759019277095146</v>
+        <v>0.7809240719410565</v>
       </c>
       <c r="Q86" s="5" t="n">
         <v>541</v>
@@ -6085,19 +6085,19 @@
         <v>501022</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>475256</v>
+        <v>478454</v>
       </c>
       <c r="T86" s="5" t="n">
-        <v>522673</v>
+        <v>524524</v>
       </c>
       <c r="U86" s="6" t="n">
         <v>0.7383522697107473</v>
       </c>
       <c r="V86" s="6" t="n">
-        <v>0.7003802185822947</v>
+        <v>0.7050932774987146</v>
       </c>
       <c r="W86" s="6" t="n">
-        <v>0.7702593434298296</v>
+        <v>0.7729872999545981</v>
       </c>
     </row>
     <row r="87">
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="5" t="n">
-        <v>6234</v>
+        <v>6170</v>
       </c>
       <c r="N94" s="6" t="n">
         <v>0.002521070616756657</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="6" t="n">
-        <v>0.01615743953874068</v>
+        <v>0.01599121776628712</v>
       </c>
       <c r="Q94" s="5" t="n">
         <v>1</v>
@@ -6508,16 +6508,16 @@
         <v>0</v>
       </c>
       <c r="T94" s="5" t="n">
-        <v>4529</v>
+        <v>6615</v>
       </c>
       <c r="U94" s="6" t="n">
-        <v>0.00123750426583961</v>
+        <v>0.001237504265839609</v>
       </c>
       <c r="V94" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W94" s="6" t="n">
-        <v>0.005761684623006692</v>
+        <v>0.008416108826708917</v>
       </c>
     </row>
     <row r="95">
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="M95" s="5" t="n">
-        <v>3100</v>
+        <v>3439</v>
       </c>
       <c r="N95" s="6" t="n">
         <v>0.001576383984190562</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="P95" s="6" t="n">
-        <v>0.008034832396162013</v>
+        <v>0.008914336619175373</v>
       </c>
       <c r="Q95" s="5" t="n">
         <v>1</v>
@@ -6571,16 +6571,16 @@
         <v>0</v>
       </c>
       <c r="T95" s="5" t="n">
-        <v>3097</v>
+        <v>4162</v>
       </c>
       <c r="U95" s="6" t="n">
-        <v>0.0007737910600642874</v>
+        <v>0.0007737910600642873</v>
       </c>
       <c r="V95" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W95" s="6" t="n">
-        <v>0.003940720031927926</v>
+        <v>0.005295342215745948</v>
       </c>
     </row>
     <row r="96">
@@ -6597,19 +6597,19 @@
         <v>9031</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>4111</v>
+        <v>4417</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>17073</v>
+        <v>17232</v>
       </c>
       <c r="G96" s="6" t="n">
         <v>0.02256769893678914</v>
       </c>
       <c r="H96" s="6" t="n">
-        <v>0.01027263373968272</v>
+        <v>0.01103620502779252</v>
       </c>
       <c r="I96" s="6" t="n">
-        <v>0.04266215633155339</v>
+        <v>0.04306012312677714</v>
       </c>
       <c r="J96" s="5" t="n">
         <v>4</v>
@@ -6618,19 +6618,19 @@
         <v>3130</v>
       </c>
       <c r="L96" s="5" t="n">
-        <v>797</v>
+        <v>868</v>
       </c>
       <c r="M96" s="5" t="n">
-        <v>7741</v>
+        <v>8107</v>
       </c>
       <c r="N96" s="6" t="n">
         <v>0.008113380774797957</v>
       </c>
       <c r="O96" s="6" t="n">
-        <v>0.002066238399422494</v>
+        <v>0.002249042994616918</v>
       </c>
       <c r="P96" s="6" t="n">
-        <v>0.02006258181695195</v>
+        <v>0.02101308536192359</v>
       </c>
       <c r="Q96" s="5" t="n">
         <v>13</v>
@@ -6639,19 +6639,19 @@
         <v>12162</v>
       </c>
       <c r="S96" s="5" t="n">
-        <v>6462</v>
+        <v>6808</v>
       </c>
       <c r="T96" s="5" t="n">
-        <v>20253</v>
+        <v>20694</v>
       </c>
       <c r="U96" s="6" t="n">
         <v>0.01547258614368582</v>
       </c>
       <c r="V96" s="6" t="n">
-        <v>0.008221393893708994</v>
+        <v>0.008661870320575896</v>
       </c>
       <c r="W96" s="6" t="n">
-        <v>0.02576713762218795</v>
+        <v>0.02632731570295719</v>
       </c>
     </row>
     <row r="97">
@@ -6668,19 +6668,19 @@
         <v>60172</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>47230</v>
+        <v>46994</v>
       </c>
       <c r="F97" s="5" t="n">
-        <v>74382</v>
+        <v>74718</v>
       </c>
       <c r="G97" s="6" t="n">
         <v>0.1503581759240933</v>
       </c>
       <c r="H97" s="6" t="n">
-        <v>0.1180201695855851</v>
+        <v>0.1174301894064919</v>
       </c>
       <c r="I97" s="6" t="n">
-        <v>0.1858664641932308</v>
+        <v>0.1867074547384832</v>
       </c>
       <c r="J97" s="5" t="n">
         <v>51</v>
@@ -6689,19 +6689,19 @@
         <v>36758</v>
       </c>
       <c r="L97" s="5" t="n">
-        <v>27672</v>
+        <v>27251</v>
       </c>
       <c r="M97" s="5" t="n">
-        <v>47518</v>
+        <v>47534</v>
       </c>
       <c r="N97" s="6" t="n">
         <v>0.09527196696959325</v>
       </c>
       <c r="O97" s="6" t="n">
-        <v>0.07172045381472147</v>
+        <v>0.07062889959903226</v>
       </c>
       <c r="P97" s="6" t="n">
-        <v>0.1231585611786313</v>
+        <v>0.1232006204541724</v>
       </c>
       <c r="Q97" s="5" t="n">
         <v>115</v>
@@ -6710,19 +6710,19 @@
         <v>96930</v>
       </c>
       <c r="S97" s="5" t="n">
-        <v>77684</v>
+        <v>80998</v>
       </c>
       <c r="T97" s="5" t="n">
-        <v>114127</v>
+        <v>115352</v>
       </c>
       <c r="U97" s="6" t="n">
         <v>0.1233183071806205</v>
       </c>
       <c r="V97" s="6" t="n">
-        <v>0.09883264066259694</v>
+        <v>0.1030483008927363</v>
       </c>
       <c r="W97" s="6" t="n">
-        <v>0.1451975709859334</v>
+        <v>0.1467554735066636</v>
       </c>
     </row>
     <row r="98">
@@ -6739,19 +6739,19 @@
         <v>330985</v>
       </c>
       <c r="E98" s="5" t="n">
-        <v>315694</v>
+        <v>314625</v>
       </c>
       <c r="F98" s="5" t="n">
-        <v>344438</v>
+        <v>345111</v>
       </c>
       <c r="G98" s="6" t="n">
-        <v>0.8270741251391176</v>
+        <v>0.8270741251391175</v>
       </c>
       <c r="H98" s="6" t="n">
-        <v>0.7888632009641616</v>
+        <v>0.7861934226705266</v>
       </c>
       <c r="I98" s="6" t="n">
-        <v>0.8606915141056537</v>
+        <v>0.8623728639216072</v>
       </c>
       <c r="J98" s="5" t="n">
         <v>441</v>
@@ -6760,19 +6760,19 @@
         <v>344357</v>
       </c>
       <c r="L98" s="5" t="n">
-        <v>332978</v>
+        <v>332690</v>
       </c>
       <c r="M98" s="5" t="n">
-        <v>354155</v>
+        <v>353840</v>
       </c>
       <c r="N98" s="6" t="n">
         <v>0.8925171976546615</v>
       </c>
       <c r="O98" s="6" t="n">
-        <v>0.8630250064203566</v>
+        <v>0.8622787217894587</v>
       </c>
       <c r="P98" s="6" t="n">
-        <v>0.9179103633373581</v>
+        <v>0.9170945530536422</v>
       </c>
       <c r="Q98" s="5" t="n">
         <v>761</v>
@@ -6781,19 +6781,19 @@
         <v>675342</v>
       </c>
       <c r="S98" s="5" t="n">
-        <v>656030</v>
+        <v>655562</v>
       </c>
       <c r="T98" s="5" t="n">
-        <v>693798</v>
+        <v>692382</v>
       </c>
       <c r="U98" s="6" t="n">
-        <v>0.8591978113497899</v>
+        <v>0.8591978113497896</v>
       </c>
       <c r="V98" s="6" t="n">
-        <v>0.8346279503090668</v>
+        <v>0.8340325117459051</v>
       </c>
       <c r="W98" s="6" t="n">
-        <v>0.8826774457459191</v>
+        <v>0.8808763812515413</v>
       </c>
     </row>
     <row r="99">
@@ -6885,19 +6885,19 @@
         <v>11575</v>
       </c>
       <c r="E100" s="5" t="n">
-        <v>5826</v>
+        <v>5832</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>21862</v>
+        <v>20989</v>
       </c>
       <c r="G100" s="6" t="n">
-        <v>0.00642662697659929</v>
+        <v>0.006426626976599288</v>
       </c>
       <c r="H100" s="6" t="n">
-        <v>0.003234914387824565</v>
+        <v>0.003237987798022316</v>
       </c>
       <c r="I100" s="6" t="n">
-        <v>0.01213809821282919</v>
+        <v>0.01165352612565179</v>
       </c>
       <c r="J100" s="5" t="n">
         <v>10</v>
@@ -6906,19 +6906,19 @@
         <v>7616</v>
       </c>
       <c r="L100" s="5" t="n">
-        <v>3833</v>
+        <v>3567</v>
       </c>
       <c r="M100" s="5" t="n">
-        <v>14552</v>
+        <v>13947</v>
       </c>
       <c r="N100" s="6" t="n">
         <v>0.00410217965283144</v>
       </c>
       <c r="O100" s="6" t="n">
-        <v>0.002064844115784344</v>
+        <v>0.001921397103586522</v>
       </c>
       <c r="P100" s="6" t="n">
-        <v>0.007838552708586346</v>
+        <v>0.007512788454786251</v>
       </c>
       <c r="Q100" s="5" t="n">
         <v>20</v>
@@ -6927,19 +6927,19 @@
         <v>19190</v>
       </c>
       <c r="S100" s="5" t="n">
-        <v>11229</v>
+        <v>11943</v>
       </c>
       <c r="T100" s="5" t="n">
-        <v>28959</v>
+        <v>30101</v>
       </c>
       <c r="U100" s="6" t="n">
         <v>0.005246797469960466</v>
       </c>
       <c r="V100" s="6" t="n">
-        <v>0.003069958349658879</v>
+        <v>0.003265361881586642</v>
       </c>
       <c r="W100" s="6" t="n">
-        <v>0.007917672659002921</v>
+        <v>0.008229900395273368</v>
       </c>
     </row>
     <row r="101">
@@ -6956,19 +6956,19 @@
         <v>15512</v>
       </c>
       <c r="E101" s="5" t="n">
-        <v>8738</v>
+        <v>8962</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>27407</v>
+        <v>25782</v>
       </c>
       <c r="G101" s="6" t="n">
-        <v>0.008612774320518359</v>
+        <v>0.008612774320518357</v>
       </c>
       <c r="H101" s="6" t="n">
-        <v>0.004851661901611043</v>
+        <v>0.004976108613325429</v>
       </c>
       <c r="I101" s="6" t="n">
-        <v>0.01521692527956225</v>
+        <v>0.01431488830471644</v>
       </c>
       <c r="J101" s="5" t="n">
         <v>14</v>
@@ -6977,19 +6977,19 @@
         <v>10341</v>
       </c>
       <c r="L101" s="5" t="n">
-        <v>6084</v>
+        <v>5708</v>
       </c>
       <c r="M101" s="5" t="n">
-        <v>17329</v>
+        <v>17895</v>
       </c>
       <c r="N101" s="6" t="n">
-        <v>0.005570328789531779</v>
+        <v>0.005570328789531778</v>
       </c>
       <c r="O101" s="6" t="n">
-        <v>0.003276927103138491</v>
+        <v>0.003074689269911397</v>
       </c>
       <c r="P101" s="6" t="n">
-        <v>0.009334073321953823</v>
+        <v>0.009639043762309221</v>
       </c>
       <c r="Q101" s="5" t="n">
         <v>28</v>
@@ -6998,19 +6998,19 @@
         <v>25853</v>
       </c>
       <c r="S101" s="5" t="n">
-        <v>16949</v>
+        <v>17039</v>
       </c>
       <c r="T101" s="5" t="n">
-        <v>37203</v>
+        <v>37250</v>
       </c>
       <c r="U101" s="6" t="n">
-        <v>0.007068507443357715</v>
+        <v>0.007068507443357716</v>
       </c>
       <c r="V101" s="6" t="n">
-        <v>0.004633951015379668</v>
+        <v>0.004658634048557942</v>
       </c>
       <c r="W101" s="6" t="n">
-        <v>0.01017147781153695</v>
+        <v>0.0101845029096926</v>
       </c>
     </row>
     <row r="102">
@@ -7027,19 +7027,19 @@
         <v>3949</v>
       </c>
       <c r="E102" s="5" t="n">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="F102" s="5" t="n">
-        <v>11001</v>
+        <v>11445</v>
       </c>
       <c r="G102" s="6" t="n">
         <v>0.002192688673708116</v>
       </c>
       <c r="H102" s="6" t="n">
-        <v>0.0006179170151855502</v>
+        <v>0.0006197696651494138</v>
       </c>
       <c r="I102" s="6" t="n">
-        <v>0.006108246093806203</v>
+        <v>0.006354485221206916</v>
       </c>
       <c r="J102" s="5" t="n">
         <v>3</v>
@@ -7048,19 +7048,19 @@
         <v>2597</v>
       </c>
       <c r="L102" s="5" t="n">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="M102" s="5" t="n">
-        <v>7782</v>
+        <v>7634</v>
       </c>
       <c r="N102" s="6" t="n">
-        <v>0.001398680921519985</v>
+        <v>0.001398680921519984</v>
       </c>
       <c r="O102" s="6" t="n">
-        <v>0.0003734287593111468</v>
+        <v>0.0003743937751236325</v>
       </c>
       <c r="P102" s="6" t="n">
-        <v>0.004191906353727894</v>
+        <v>0.00411208880903217</v>
       </c>
       <c r="Q102" s="5" t="n">
         <v>6</v>
@@ -7069,19 +7069,19 @@
         <v>6546</v>
       </c>
       <c r="S102" s="5" t="n">
-        <v>2523</v>
+        <v>2355</v>
       </c>
       <c r="T102" s="5" t="n">
-        <v>14081</v>
+        <v>14183</v>
       </c>
       <c r="U102" s="6" t="n">
         <v>0.001789670818688277</v>
       </c>
       <c r="V102" s="6" t="n">
-        <v>0.0006897110637315729</v>
+        <v>0.0006439644846262114</v>
       </c>
       <c r="W102" s="6" t="n">
-        <v>0.003849862968897394</v>
+        <v>0.00387782569483649</v>
       </c>
     </row>
     <row r="103">
@@ -7111,19 +7111,19 @@
         <v>2610</v>
       </c>
       <c r="L103" s="5" t="n">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="M103" s="5" t="n">
-        <v>7738</v>
+        <v>6875</v>
       </c>
       <c r="N103" s="6" t="n">
         <v>0.001405654548747616</v>
       </c>
       <c r="O103" s="6" t="n">
-        <v>0.0003854832114416919</v>
+        <v>0.000382260566494781</v>
       </c>
       <c r="P103" s="6" t="n">
-        <v>0.004167833411401389</v>
+        <v>0.00370319442663664</v>
       </c>
       <c r="Q103" s="5" t="n">
         <v>3</v>
@@ -7132,19 +7132,19 @@
         <v>2610</v>
       </c>
       <c r="S103" s="5" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="T103" s="5" t="n">
-        <v>7188</v>
+        <v>7180</v>
       </c>
       <c r="U103" s="6" t="n">
         <v>0.0007134739926329046</v>
       </c>
       <c r="V103" s="6" t="n">
-        <v>0.0001947983949463639</v>
+        <v>0.0001942701152706735</v>
       </c>
       <c r="W103" s="6" t="n">
-        <v>0.001965381724987512</v>
+        <v>0.001963179639443967</v>
       </c>
     </row>
     <row r="104">
@@ -7161,19 +7161,19 @@
         <v>15378</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>8097</v>
+        <v>9036</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>25740</v>
+        <v>25537</v>
       </c>
       <c r="G104" s="6" t="n">
-        <v>0.008538049858101244</v>
+        <v>0.008538049858101242</v>
       </c>
       <c r="H104" s="6" t="n">
-        <v>0.004495753849352756</v>
+        <v>0.005016891594031484</v>
       </c>
       <c r="I104" s="6" t="n">
-        <v>0.01429153180289782</v>
+        <v>0.01417849654706243</v>
       </c>
       <c r="J104" s="5" t="n">
         <v>24</v>
@@ -7182,19 +7182,19 @@
         <v>16609</v>
       </c>
       <c r="L104" s="5" t="n">
-        <v>10746</v>
+        <v>11073</v>
       </c>
       <c r="M104" s="5" t="n">
-        <v>25844</v>
+        <v>25851</v>
       </c>
       <c r="N104" s="6" t="n">
-        <v>0.008946510307096761</v>
+        <v>0.008946510307096759</v>
       </c>
       <c r="O104" s="6" t="n">
-        <v>0.005788608205491506</v>
+        <v>0.005964645691938415</v>
       </c>
       <c r="P104" s="6" t="n">
-        <v>0.01392087458732235</v>
+        <v>0.01392492343013877</v>
       </c>
       <c r="Q104" s="5" t="n">
         <v>38</v>
@@ -7203,19 +7203,19 @@
         <v>31987</v>
       </c>
       <c r="S104" s="5" t="n">
-        <v>22739</v>
+        <v>23054</v>
       </c>
       <c r="T104" s="5" t="n">
-        <v>45190</v>
+        <v>45171</v>
       </c>
       <c r="U104" s="6" t="n">
         <v>0.008745373846514406</v>
       </c>
       <c r="V104" s="6" t="n">
-        <v>0.006216993606853706</v>
+        <v>0.006303124796127984</v>
       </c>
       <c r="W104" s="6" t="n">
-        <v>0.01235525641153913</v>
+        <v>0.01235007081456001</v>
       </c>
     </row>
     <row r="105">
@@ -7232,19 +7232,19 @@
         <v>19203</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>11080</v>
+        <v>10687</v>
       </c>
       <c r="F105" s="5" t="n">
-        <v>38977</v>
+        <v>34911</v>
       </c>
       <c r="G105" s="6" t="n">
         <v>0.01066198117296705</v>
       </c>
       <c r="H105" s="6" t="n">
-        <v>0.00615165743796199</v>
+        <v>0.005933797826237611</v>
       </c>
       <c r="I105" s="6" t="n">
-        <v>0.02164092461158644</v>
+        <v>0.01938345115451255</v>
       </c>
       <c r="J105" s="5" t="n">
         <v>14</v>
@@ -7253,19 +7253,19 @@
         <v>10439</v>
       </c>
       <c r="L105" s="5" t="n">
-        <v>5821</v>
+        <v>5789</v>
       </c>
       <c r="M105" s="5" t="n">
-        <v>16919</v>
+        <v>17247</v>
       </c>
       <c r="N105" s="6" t="n">
-        <v>0.005623238626210451</v>
+        <v>0.00562323862621045</v>
       </c>
       <c r="O105" s="6" t="n">
-        <v>0.003135373239519023</v>
+        <v>0.003118296540367353</v>
       </c>
       <c r="P105" s="6" t="n">
-        <v>0.009113741477720171</v>
+        <v>0.009290074641065115</v>
       </c>
       <c r="Q105" s="5" t="n">
         <v>29</v>
@@ -7274,19 +7274,19 @@
         <v>29642</v>
       </c>
       <c r="S105" s="5" t="n">
-        <v>20025</v>
+        <v>19714</v>
       </c>
       <c r="T105" s="5" t="n">
-        <v>47138</v>
+        <v>46653</v>
       </c>
       <c r="U105" s="6" t="n">
         <v>0.008104445421464847</v>
       </c>
       <c r="V105" s="6" t="n">
-        <v>0.005475031250866964</v>
+        <v>0.005389890883228743</v>
       </c>
       <c r="W105" s="6" t="n">
-        <v>0.01288789102564847</v>
+        <v>0.01275524087728722</v>
       </c>
     </row>
     <row r="106">
@@ -7303,19 +7303,19 @@
         <v>34281</v>
       </c>
       <c r="E106" s="5" t="n">
-        <v>21899</v>
+        <v>21158</v>
       </c>
       <c r="F106" s="5" t="n">
-        <v>54711</v>
+        <v>54739</v>
       </c>
       <c r="G106" s="6" t="n">
         <v>0.01903344387127937</v>
       </c>
       <c r="H106" s="6" t="n">
-        <v>0.01215893527400696</v>
+        <v>0.01174768550971177</v>
       </c>
       <c r="I106" s="6" t="n">
-        <v>0.03037694367475076</v>
+        <v>0.03039242727263511</v>
       </c>
       <c r="J106" s="5" t="n">
         <v>51</v>
@@ -7324,19 +7324,19 @@
         <v>45511</v>
       </c>
       <c r="L106" s="5" t="n">
-        <v>33626</v>
+        <v>33401</v>
       </c>
       <c r="M106" s="5" t="n">
-        <v>64423</v>
+        <v>63907</v>
       </c>
       <c r="N106" s="6" t="n">
-        <v>0.02451482050059597</v>
+        <v>0.02451482050059596</v>
       </c>
       <c r="O106" s="6" t="n">
-        <v>0.01811301277028087</v>
+        <v>0.01799132182537935</v>
       </c>
       <c r="P106" s="6" t="n">
-        <v>0.03470157319888302</v>
+        <v>0.03442395681715574</v>
       </c>
       <c r="Q106" s="5" t="n">
         <v>78</v>
@@ -7345,19 +7345,19 @@
         <v>79792</v>
       </c>
       <c r="S106" s="5" t="n">
-        <v>61193</v>
+        <v>61620</v>
       </c>
       <c r="T106" s="5" t="n">
-        <v>104646</v>
+        <v>103823</v>
       </c>
       <c r="U106" s="6" t="n">
         <v>0.02181564926614512</v>
       </c>
       <c r="V106" s="6" t="n">
-        <v>0.01673069456983009</v>
+        <v>0.01684743079337749</v>
       </c>
       <c r="W106" s="6" t="n">
-        <v>0.02861099254514637</v>
+        <v>0.02838593280354526</v>
       </c>
     </row>
     <row r="107">
@@ -7374,19 +7374,19 @@
         <v>34404</v>
       </c>
       <c r="E107" s="5" t="n">
-        <v>23699</v>
+        <v>23017</v>
       </c>
       <c r="F107" s="5" t="n">
-        <v>50125</v>
+        <v>50229</v>
       </c>
       <c r="G107" s="6" t="n">
         <v>0.01910197867140283</v>
       </c>
       <c r="H107" s="6" t="n">
-        <v>0.01315807722360166</v>
+        <v>0.0127794263155575</v>
       </c>
       <c r="I107" s="6" t="n">
-        <v>0.02783056999923603</v>
+        <v>0.0278881712663281</v>
       </c>
       <c r="J107" s="5" t="n">
         <v>30</v>
@@ -7395,19 +7395,19 @@
         <v>18881</v>
       </c>
       <c r="L107" s="5" t="n">
-        <v>13065</v>
+        <v>12836</v>
       </c>
       <c r="M107" s="5" t="n">
-        <v>26910</v>
+        <v>26408</v>
       </c>
       <c r="N107" s="6" t="n">
         <v>0.01017058160085896</v>
       </c>
       <c r="O107" s="6" t="n">
-        <v>0.007037408727010906</v>
+        <v>0.006914111470658344</v>
       </c>
       <c r="P107" s="6" t="n">
-        <v>0.01449508104707607</v>
+        <v>0.01422457181854747</v>
       </c>
       <c r="Q107" s="5" t="n">
         <v>61</v>
@@ -7416,19 +7416,19 @@
         <v>53286</v>
       </c>
       <c r="S107" s="5" t="n">
-        <v>40099</v>
+        <v>40091</v>
       </c>
       <c r="T107" s="5" t="n">
-        <v>70459</v>
+        <v>70494</v>
       </c>
       <c r="U107" s="6" t="n">
         <v>0.01456863188759435</v>
       </c>
       <c r="V107" s="6" t="n">
-        <v>0.0109632522521954</v>
+        <v>0.01096104483074955</v>
       </c>
       <c r="W107" s="6" t="n">
-        <v>0.01926408081270484</v>
+        <v>0.01927356657886981</v>
       </c>
     </row>
     <row r="108">
@@ -7445,19 +7445,19 @@
         <v>99664</v>
       </c>
       <c r="E108" s="5" t="n">
-        <v>78679</v>
+        <v>75620</v>
       </c>
       <c r="F108" s="5" t="n">
-        <v>123987</v>
+        <v>124136</v>
       </c>
       <c r="G108" s="6" t="n">
-        <v>0.055335943644562</v>
+        <v>0.05533594364456199</v>
       </c>
       <c r="H108" s="6" t="n">
-        <v>0.04368474302995937</v>
+        <v>0.04198629949298947</v>
       </c>
       <c r="I108" s="6" t="n">
-        <v>0.06884031831228925</v>
+        <v>0.06892333814792558</v>
       </c>
       <c r="J108" s="5" t="n">
         <v>132</v>
@@ -7466,19 +7466,19 @@
         <v>87540</v>
       </c>
       <c r="L108" s="5" t="n">
-        <v>73224</v>
+        <v>72874</v>
       </c>
       <c r="M108" s="5" t="n">
-        <v>104866</v>
+        <v>104012</v>
       </c>
       <c r="N108" s="6" t="n">
-        <v>0.04715386721285253</v>
+        <v>0.04715386721285252</v>
       </c>
       <c r="O108" s="6" t="n">
-        <v>0.03944222925549803</v>
+        <v>0.0392537784100815</v>
       </c>
       <c r="P108" s="6" t="n">
-        <v>0.05648626101085061</v>
+        <v>0.0560265512395626</v>
       </c>
       <c r="Q108" s="5" t="n">
         <v>210</v>
@@ -7487,19 +7487,19 @@
         <v>187204</v>
       </c>
       <c r="S108" s="5" t="n">
-        <v>160015</v>
+        <v>158571</v>
       </c>
       <c r="T108" s="5" t="n">
-        <v>220017</v>
+        <v>218531</v>
       </c>
       <c r="U108" s="6" t="n">
         <v>0.05118293268965809</v>
       </c>
       <c r="V108" s="6" t="n">
-        <v>0.04374925028907731</v>
+        <v>0.04335432983501972</v>
       </c>
       <c r="W108" s="6" t="n">
-        <v>0.06015424560624219</v>
+        <v>0.05974787622981564</v>
       </c>
     </row>
     <row r="109">
@@ -7516,19 +7516,19 @@
         <v>201737</v>
       </c>
       <c r="E109" s="5" t="n">
-        <v>176976</v>
+        <v>175511</v>
       </c>
       <c r="F109" s="5" t="n">
-        <v>230625</v>
+        <v>231632</v>
       </c>
       <c r="G109" s="6" t="n">
         <v>0.1120092047019467</v>
       </c>
       <c r="H109" s="6" t="n">
-        <v>0.09826143649984029</v>
+        <v>0.0974476789595223</v>
       </c>
       <c r="I109" s="6" t="n">
-        <v>0.1280487449998928</v>
+        <v>0.1286077839668869</v>
       </c>
       <c r="J109" s="5" t="n">
         <v>314</v>
@@ -7537,19 +7537,19 @@
         <v>197074</v>
       </c>
       <c r="L109" s="5" t="n">
-        <v>175538</v>
+        <v>172474</v>
       </c>
       <c r="M109" s="5" t="n">
-        <v>221418</v>
+        <v>218833</v>
       </c>
       <c r="N109" s="6" t="n">
-        <v>0.1061545631277714</v>
+        <v>0.1061545631277713</v>
       </c>
       <c r="O109" s="6" t="n">
-        <v>0.0945539750604983</v>
+        <v>0.09290357538835858</v>
       </c>
       <c r="P109" s="6" t="n">
-        <v>0.1192674965700399</v>
+        <v>0.117875148013496</v>
       </c>
       <c r="Q109" s="5" t="n">
         <v>541</v>
@@ -7558,19 +7558,19 @@
         <v>398811</v>
       </c>
       <c r="S109" s="5" t="n">
-        <v>366191</v>
+        <v>367773</v>
       </c>
       <c r="T109" s="5" t="n">
-        <v>437463</v>
+        <v>438530</v>
       </c>
       <c r="U109" s="6" t="n">
         <v>0.1090375396487634</v>
       </c>
       <c r="V109" s="6" t="n">
-        <v>0.1001191969681145</v>
+        <v>0.1005515017529946</v>
       </c>
       <c r="W109" s="6" t="n">
-        <v>0.1196052151610037</v>
+        <v>0.1198970939134655</v>
       </c>
     </row>
     <row r="110">
@@ -7587,19 +7587,19 @@
         <v>1365372</v>
       </c>
       <c r="E110" s="5" t="n">
-        <v>1324638</v>
+        <v>1322310</v>
       </c>
       <c r="F110" s="5" t="n">
-        <v>1404970</v>
+        <v>1405828</v>
       </c>
       <c r="G110" s="6" t="n">
-        <v>0.7580873081089151</v>
+        <v>0.758087308108915</v>
       </c>
       <c r="H110" s="6" t="n">
-        <v>0.7354709153955055</v>
+        <v>0.7341779410043384</v>
       </c>
       <c r="I110" s="6" t="n">
-        <v>0.7800727758517279</v>
+        <v>0.7805492456586409</v>
       </c>
       <c r="J110" s="5" t="n">
         <v>2148</v>
@@ -7608,19 +7608,19 @@
         <v>1457263</v>
       </c>
       <c r="L110" s="5" t="n">
-        <v>1426212</v>
+        <v>1424424</v>
       </c>
       <c r="M110" s="5" t="n">
-        <v>1488793</v>
+        <v>1489452</v>
       </c>
       <c r="N110" s="6" t="n">
-        <v>0.7849595747119833</v>
+        <v>0.7849595747119832</v>
       </c>
       <c r="O110" s="6" t="n">
-        <v>0.7682340038576638</v>
+        <v>0.767270846826256</v>
       </c>
       <c r="P110" s="6" t="n">
-        <v>0.8019436879044435</v>
+        <v>0.8022984401502752</v>
       </c>
       <c r="Q110" s="5" t="n">
         <v>3492</v>
@@ -7629,19 +7629,19 @@
         <v>2822634</v>
       </c>
       <c r="S110" s="5" t="n">
-        <v>2762928</v>
+        <v>2761087</v>
       </c>
       <c r="T110" s="5" t="n">
-        <v>2869835</v>
+        <v>2867546</v>
       </c>
       <c r="U110" s="6" t="n">
         <v>0.7717269775152205</v>
       </c>
       <c r="V110" s="6" t="n">
-        <v>0.7554029725988942</v>
+        <v>0.7548995677315962</v>
       </c>
       <c r="W110" s="6" t="n">
-        <v>0.7846319552925275</v>
+        <v>0.7840063236589389</v>
       </c>
     </row>
     <row r="111">
